--- a/web-app/spreadsheet/CDM_Bulkload_Schematic.xlsx
+++ b/web-app/spreadsheet/CDM_Bulkload_Schematic.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="CDM" sheetId="4" r:id="rId1"/>
     <sheet name="Dept" sheetId="6" r:id="rId2"/>
     <sheet name="CDMService" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="CDMService">CDMService!$B$3:$B$23</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="307">
   <si>
     <t>Consultation Mode</t>
   </si>
@@ -913,6 +912,39 @@
   </si>
   <si>
     <t>free text</t>
+  </si>
+  <si>
+    <t>Wharton</t>
+  </si>
+  <si>
+    <t>Vet</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Dental</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Annenberg</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1116,6 +1148,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1471,7 +1504,7 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>295</v>
       </c>
       <c r="T8" s="1" t="s">
@@ -1632,9 +1665,7 @@
       <c r="B36" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="2:3" s="1" customFormat="1" ht="15">
       <c r="B37" s="6"/>
@@ -1681,6 +1712,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>CDMService!$F$3:$F$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C36</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1688,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2811,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2825,7 +2869,7 @@
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" s="16" t="s">
         <v>271</v>
       </c>
@@ -2838,8 +2882,11 @@
       <c r="E2" s="18" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>250</v>
       </c>
@@ -2852,8 +2899,11 @@
       <c r="E3" s="17" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>251</v>
       </c>
@@ -2866,8 +2916,11 @@
       <c r="E4" s="17" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>252</v>
       </c>
@@ -2880,8 +2933,11 @@
       <c r="E5" s="17" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>253</v>
       </c>
@@ -2894,8 +2950,11 @@
       <c r="E6" s="17" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>254</v>
       </c>
@@ -2905,8 +2964,11 @@
       <c r="D7" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>255</v>
       </c>
@@ -2916,51 +2978,78 @@
       <c r="D8" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>256</v>
       </c>
       <c r="D9" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>257</v>
       </c>
       <c r="D10" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="F10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="F11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="F12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="F13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="F14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="F15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
         <v>263</v>
+      </c>
+      <c r="F16" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -3001,16 +3090,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>